--- a/onprc_ehr/tools/excelTemplates/Form Templates v6.xlsx
+++ b/onprc_ehr/tools/excelTemplates/Form Templates v6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="22995" windowHeight="11565" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="22995" windowHeight="11565" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SOAP" sheetId="1" r:id="rId1"/>
@@ -1690,14 +1690,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -3659,7 +3652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M2" sqref="M2:O59"/>
     </sheetView>
@@ -3804,7 +3797,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60">
+    <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
@@ -3848,7 +3841,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60">
+    <row r="5" spans="1:15">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -3892,7 +3885,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60">
+    <row r="6" spans="1:15">
       <c r="A6" s="11" t="s">
         <v>38</v>
       </c>
@@ -3936,7 +3929,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60">
+    <row r="7" spans="1:15">
       <c r="A7" s="11" t="s">
         <v>38</v>
       </c>
@@ -3980,7 +3973,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60">
+    <row r="8" spans="1:15">
       <c r="A8" s="11" t="s">
         <v>38</v>
       </c>
@@ -4024,7 +4017,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="60">
+    <row r="9" spans="1:15">
       <c r="A9" s="11" t="s">
         <v>38</v>
       </c>
@@ -4122,7 +4115,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="60">
+    <row r="11" spans="1:15">
       <c r="A11" s="11" t="s">
         <v>38</v>
       </c>
@@ -4166,7 +4159,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="60">
+    <row r="12" spans="1:15">
       <c r="A12" s="11" t="s">
         <v>38</v>
       </c>
@@ -4210,7 +4203,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="60">
+    <row r="13" spans="1:15">
       <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
@@ -4254,7 +4247,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="60">
+    <row r="14" spans="1:15">
       <c r="A14" s="11" t="s">
         <v>38</v>
       </c>
@@ -4298,7 +4291,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="60">
+    <row r="15" spans="1:15">
       <c r="A15" s="11" t="s">
         <v>38</v>
       </c>
@@ -4342,7 +4335,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="60">
+    <row r="16" spans="1:15">
       <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
@@ -4386,7 +4379,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="60">
+    <row r="17" spans="1:15" ht="15.75">
       <c r="A17" s="11" t="s">
         <v>38</v>
       </c>
@@ -4430,7 +4423,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="60">
+    <row r="18" spans="1:15" ht="15.75">
       <c r="A18" s="11" t="s">
         <v>38</v>
       </c>
@@ -4474,7 +4467,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="60">
+    <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="11" t="s">
         <v>38</v>
       </c>
@@ -4572,7 +4565,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="60">
+    <row r="21" spans="1:15">
       <c r="A21" s="11" t="s">
         <v>37</v>
       </c>
@@ -4616,7 +4609,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="60">
+    <row r="22" spans="1:15">
       <c r="A22" s="11" t="s">
         <v>37</v>
       </c>
@@ -4660,7 +4653,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="60">
+    <row r="23" spans="1:15">
       <c r="A23" s="11" t="s">
         <v>37</v>
       </c>
@@ -4704,7 +4697,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="60">
+    <row r="24" spans="1:15">
       <c r="A24" s="11" t="s">
         <v>37</v>
       </c>
@@ -4724,27 +4717,27 @@
         <v>181</v>
       </c>
       <c r="I24" s="5" t="str">
-        <f t="shared" ref="I24:I60" si="6">IF($B23&lt;&gt;$B24,"template: ['"&amp;$B24&amp;"', 'Section', 'Drug Administration', '', ''], "&amp;CHAR(10)&amp;"records: ["&amp;CHAR(10),"")</f>
+        <f t="shared" ref="I24:I59" si="6">IF($B23&lt;&gt;$B24,"template: ['"&amp;$B24&amp;"', 'Section', 'Drug Administration', '', ''], "&amp;CHAR(10)&amp;"records: ["&amp;CHAR(10),"")</f>
         <v/>
       </c>
       <c r="J24" s="5" t="str">
-        <f t="shared" ref="J24:J60" si="7">IF($F24="Recurring","","['Drug Administration', '{""code"":"""&amp;$D24&amp;"""}']"&amp;IF($B24=$B25,",",""))</f>
+        <f t="shared" ref="J24:J59" si="7">IF($F24="Recurring","","['Drug Administration', '{""code"":"""&amp;$D24&amp;"""}']"&amp;IF($B24=$B25,",",""))</f>
         <v/>
       </c>
       <c r="K24" s="12" t="str">
-        <f t="shared" ref="K24:K60" si="8">IF($B24&lt;&gt;$B25,CHAR(10)&amp;"]"&amp;CHAR(10)&amp;"},{"&amp;CHAR(10),"")</f>
+        <f t="shared" ref="K24:K59" si="8">IF($B24&lt;&gt;$B25,CHAR(10)&amp;"]"&amp;CHAR(10)&amp;"},{"&amp;CHAR(10),"")</f>
         <v/>
       </c>
       <c r="M24" s="5" t="str">
-        <f t="shared" ref="M24:M60" si="9">IF($B23&lt;&gt;$B24,"template: ['"&amp;$B24&amp;"', 'Section', 'Treatment Orders', '', ''], "&amp;CHAR(10)&amp;"records: ["&amp;CHAR(10),"")</f>
+        <f t="shared" ref="M24:M59" si="9">IF($B23&lt;&gt;$B24,"template: ['"&amp;$B24&amp;"', 'Section', 'Treatment Orders', '', ''], "&amp;CHAR(10)&amp;"records: ["&amp;CHAR(10),"")</f>
         <v/>
       </c>
       <c r="N24" s="5" t="str">
-        <f t="shared" ref="N24:N60" si="10">IF($F24="Recurring","['Treatment Orders', '{""code"":"""&amp;$D24&amp;"""}']"&amp;IF($B24=$B25,",",""), "")</f>
+        <f t="shared" ref="N24:N59" si="10">IF($F24="Recurring","['Treatment Orders', '{""code"":"""&amp;$D24&amp;"""}']"&amp;IF($B24=$B25,",",""), "")</f>
         <v>['Treatment Orders', '{"code":"E-YY732"}'],</v>
       </c>
       <c r="O24" s="12" t="str">
-        <f t="shared" ref="O24:O60" si="11">IF($B24&lt;&gt;$B25,CHAR(10)&amp;"]"&amp;CHAR(10)&amp;"},{"&amp;CHAR(10),"")</f>
+        <f t="shared" ref="O24:O59" si="11">IF($B24&lt;&gt;$B25,CHAR(10)&amp;"]"&amp;CHAR(10)&amp;"},{"&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
@@ -4886,7 +4879,7 @@
 </v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="60">
       <c r="A28" s="11" t="s">
         <v>37</v>
       </c>
@@ -5022,7 +5015,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="60">
+    <row r="31" spans="1:15">
       <c r="A31" s="11" t="s">
         <v>37</v>
       </c>
@@ -5204,7 +5197,7 @@
 </v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" ht="60">
       <c r="A35" s="11" t="s">
         <v>66</v>
       </c>
@@ -5391,7 +5384,7 @@
 </v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="18">
+    <row r="39" spans="1:15" ht="60">
       <c r="A39" s="11" t="s">
         <v>37</v>
       </c>
@@ -5483,7 +5476,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="60">
+    <row r="41" spans="1:15">
       <c r="A41" s="11" t="s">
         <v>37</v>
       </c>
@@ -5615,7 +5608,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="60">
+    <row r="44" spans="1:15">
       <c r="A44" s="11" t="s">
         <v>37</v>
       </c>
@@ -5659,7 +5652,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="60">
+    <row r="45" spans="1:15">
       <c r="A45" s="11" t="s">
         <v>37</v>
       </c>
@@ -5709,7 +5702,7 @@
 </v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" ht="60">
       <c r="A46" s="11" t="s">
         <v>77</v>
       </c>
@@ -5763,7 +5756,7 @@
 </v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" ht="60">
       <c r="A47" s="11" t="s">
         <v>37</v>
       </c>
@@ -5987,7 +5980,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="60">
+    <row r="52" spans="1:15">
       <c r="A52" s="11" t="s">
         <v>37</v>
       </c>
@@ -6213,7 +6206,7 @@
 </v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" ht="60">
       <c r="A57" s="11" t="s">
         <v>37</v>
       </c>
@@ -6646,8 +6639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView topLeftCell="C145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G149"/>
+    <sheetView tabSelected="1" topLeftCell="C122" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6694,8 +6687,8 @@
 </v>
       </c>
       <c r="F2" s="38" t="str">
-        <f>"['histology', '{""code"":"""&amp;TRIM($C2)&amp;"""}']"&amp;IF($A2=$A3,",","")</f>
-        <v>['histology', '{"code":"T-08710"}'],</v>
+        <f>"['histology', '{""tissue"":"""&amp;TRIM($C2)&amp;"""}']"&amp;IF($A2=$A3,",","")</f>
+        <v>['histology', '{"tissue":"T-08710"}'],</v>
       </c>
       <c r="G2" s="39" t="str">
         <f>IF($A2&lt;&gt;$A3,CHAR(10)&amp;"]"&amp;CHAR(10)&amp;"},{"&amp;CHAR(10),"")</f>
@@ -6720,8 +6713,8 @@
         <v/>
       </c>
       <c r="F3" s="38" t="str">
-        <f t="shared" ref="F3:F66" si="1">"['histology', '{""code"":"""&amp;TRIM($C3)&amp;"""}']"&amp;IF($A3=$A4,",","")</f>
-        <v>['histology', '{"code":"T-08650"}'],</v>
+        <f t="shared" ref="F3:F66" si="1">"['histology', '{""tissue"":"""&amp;TRIM($C3)&amp;"""}']"&amp;IF($A3=$A4,",","")</f>
+        <v>['histology', '{"tissue":"T-08650"}'],</v>
       </c>
       <c r="G3" s="39" t="str">
         <f t="shared" ref="G3:G66" si="2">IF($A3&lt;&gt;$A4,CHAR(10)&amp;"]"&amp;CHAR(10)&amp;"},{"&amp;CHAR(10),"")</f>
@@ -6747,7 +6740,7 @@
       </c>
       <c r="F4" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-08810"}'],</v>
+        <v>['histology', '{"tissue":"T-08810"}'],</v>
       </c>
       <c r="G4" s="39" t="str">
         <f t="shared" si="2"/>
@@ -6773,7 +6766,7 @@
       </c>
       <c r="F5" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-08510"}'],</v>
+        <v>['histology', '{"tissue":"T-08510"}'],</v>
       </c>
       <c r="G5" s="39" t="str">
         <f t="shared" si="2"/>
@@ -6799,7 +6792,7 @@
       </c>
       <c r="F6" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-08420"}'],</v>
+        <v>['histology', '{"tissue":"T-08420"}'],</v>
       </c>
       <c r="G6" s="39" t="str">
         <f t="shared" si="2"/>
@@ -6825,7 +6818,7 @@
       </c>
       <c r="F7" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-08160"}'],</v>
+        <v>['histology', '{"tissue":"T-08160"}'],</v>
       </c>
       <c r="G7" s="39" t="str">
         <f t="shared" si="2"/>
@@ -6851,7 +6844,7 @@
       </c>
       <c r="F8" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-08332"}'],</v>
+        <v>['histology', '{"tissue":"T-08332"}'],</v>
       </c>
       <c r="G8" s="39" t="str">
         <f t="shared" si="2"/>
@@ -6877,7 +6870,7 @@
       </c>
       <c r="F9" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-08520"}'],</v>
+        <v>['histology', '{"tissue":"T-08520"}'],</v>
       </c>
       <c r="G9" s="39" t="str">
         <f t="shared" si="2"/>
@@ -6903,7 +6896,7 @@
       </c>
       <c r="F10" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-55100"}'],</v>
+        <v>['histology', '{"tissue":"T-55100"}'],</v>
       </c>
       <c r="G10" s="39" t="str">
         <f t="shared" si="2"/>
@@ -6929,7 +6922,7 @@
       </c>
       <c r="F11" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-55300"}'],</v>
+        <v>['histology', '{"tissue":"T-55300"}'],</v>
       </c>
       <c r="G11" s="39" t="str">
         <f t="shared" si="2"/>
@@ -6955,7 +6948,7 @@
       </c>
       <c r="F12" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-53000"}'],</v>
+        <v>['histology', '{"tissue":"T-53000"}'],</v>
       </c>
       <c r="G12" s="39" t="str">
         <f t="shared" si="2"/>
@@ -6981,7 +6974,7 @@
       </c>
       <c r="F13" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-61100"}'],</v>
+        <v>['histology', '{"tissue":"T-61100"}'],</v>
       </c>
       <c r="G13" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7007,7 +7000,7 @@
       </c>
       <c r="F14" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-60110"}'],</v>
+        <v>['histology', '{"tissue":"T-60110"}'],</v>
       </c>
       <c r="G14" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7033,7 +7026,7 @@
       </c>
       <c r="F15" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-51300"}'],</v>
+        <v>['histology', '{"tissue":"T-51300"}'],</v>
       </c>
       <c r="G15" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7059,7 +7052,7 @@
       </c>
       <c r="F16" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-93000"}'],</v>
+        <v>['histology', '{"tissue":"T-93000"}'],</v>
       </c>
       <c r="G16" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7085,7 +7078,7 @@
       </c>
       <c r="F17" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-96000"}'],</v>
+        <v>['histology', '{"tissue":"T-96000"}'],</v>
       </c>
       <c r="G17" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7111,7 +7104,7 @@
       </c>
       <c r="F18" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-98000"}'],</v>
+        <v>['histology', '{"tissue":"T-98000"}'],</v>
       </c>
       <c r="G18" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7137,7 +7130,7 @@
       </c>
       <c r="F19" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-01000"}'],</v>
+        <v>['histology', '{"tissue":"T-01000"}'],</v>
       </c>
       <c r="G19" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7163,7 +7156,7 @@
       </c>
       <c r="F20" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-06000"}'],</v>
+        <v>['histology', '{"tissue":"T-06000"}'],</v>
       </c>
       <c r="G20" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7189,7 +7182,7 @@
       </c>
       <c r="F21" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-13000"}'],</v>
+        <v>['histology', '{"tissue":"T-13000"}'],</v>
       </c>
       <c r="G21" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7215,7 +7208,7 @@
       </c>
       <c r="F22" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-X2003"}'],</v>
+        <v>['histology', '{"tissue":"T-X2003"}'],</v>
       </c>
       <c r="G22" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7241,7 +7234,7 @@
       </c>
       <c r="F23" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-91000"}'],</v>
+        <v>['histology', '{"tissue":"T-91000"}'],</v>
       </c>
       <c r="G23" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7267,7 +7260,7 @@
       </c>
       <c r="F24" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-X7410"}'],</v>
+        <v>['histology', '{"tissue":"T-X7410"}'],</v>
       </c>
       <c r="G24" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7293,7 +7286,7 @@
       </c>
       <c r="F25" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-07000"}'],</v>
+        <v>['histology', '{"tissue":"T-07000"}'],</v>
       </c>
       <c r="G25" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7319,7 +7312,7 @@
       </c>
       <c r="F26" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-42000"}'],</v>
+        <v>['histology', '{"tissue":"T-42000"}'],</v>
       </c>
       <c r="G26" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7345,7 +7338,7 @@
       </c>
       <c r="F27" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-33010"}'],</v>
+        <v>['histology', '{"tissue":"T-33010"}'],</v>
       </c>
       <c r="G27" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7371,7 +7364,7 @@
       </c>
       <c r="F28" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-28000"}'],</v>
+        <v>['histology', '{"tissue":"T-28000"}'],</v>
       </c>
       <c r="G28" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7397,7 +7390,7 @@
       </c>
       <c r="F29" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-56000"}'],</v>
+        <v>['histology', '{"tissue":"T-56000"}'],</v>
       </c>
       <c r="G29" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7423,7 +7416,7 @@
       </c>
       <c r="F30" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-57000"}'],</v>
+        <v>['histology', '{"tissue":"T-57000"}'],</v>
       </c>
       <c r="G30" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7449,7 +7442,7 @@
       </c>
       <c r="F31" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-59000"}'],</v>
+        <v>['histology', '{"tissue":"T-59000"}'],</v>
       </c>
       <c r="G31" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7475,7 +7468,7 @@
       </c>
       <c r="F32" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-71000"}'],</v>
+        <v>['histology', '{"tissue":"T-71000"}'],</v>
       </c>
       <c r="G32" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7501,7 +7494,7 @@
       </c>
       <c r="F33" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-74000"}'],</v>
+        <v>['histology', '{"tissue":"T-74000"}'],</v>
       </c>
       <c r="G33" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7527,7 +7520,7 @@
       </c>
       <c r="F34" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-62000"}'],</v>
+        <v>['histology', '{"tissue":"T-62000"}'],</v>
       </c>
       <c r="G34" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7553,7 +7546,7 @@
       </c>
       <c r="F35" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-63000"}'],</v>
+        <v>['histology', '{"tissue":"T-63000"}'],</v>
       </c>
       <c r="G35" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7579,7 +7572,7 @@
       </c>
       <c r="F36" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-64300"}'],</v>
+        <v>['histology', '{"tissue":"T-64300"}'],</v>
       </c>
       <c r="G36" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7605,7 +7598,7 @@
       </c>
       <c r="F37" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-65100"}'],</v>
+        <v>['histology', '{"tissue":"T-65100"}'],</v>
       </c>
       <c r="G37" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7631,7 +7624,7 @@
       </c>
       <c r="F38" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-65200"}'],</v>
+        <v>['histology', '{"tissue":"T-65200"}'],</v>
       </c>
       <c r="G38" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7657,7 +7650,7 @@
       </c>
       <c r="F39" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-67000"}'],</v>
+        <v>['histology', '{"tissue":"T-67000"}'],</v>
       </c>
       <c r="G39" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7683,7 +7676,7 @@
       </c>
       <c r="F40" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-68000"}'],</v>
+        <v>['histology', '{"tissue":"T-68000"}'],</v>
       </c>
       <c r="G40" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7709,7 +7702,7 @@
       </c>
       <c r="F41" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-83000"}'],</v>
+        <v>['histology', '{"tissue":"T-83000"}'],</v>
       </c>
       <c r="G41" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7735,7 +7728,7 @@
       </c>
       <c r="F42" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-87000"}'],</v>
+        <v>['histology', '{"tissue":"T-87000"}'],</v>
       </c>
       <c r="G42" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7761,7 +7754,7 @@
       </c>
       <c r="F43" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-81000"}'],</v>
+        <v>['histology', '{"tissue":"T-81000"}'],</v>
       </c>
       <c r="G43" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7787,7 +7780,7 @@
       </c>
       <c r="F44" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-82000"}'],</v>
+        <v>['histology', '{"tissue":"T-82000"}'],</v>
       </c>
       <c r="G44" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7813,7 +7806,7 @@
       </c>
       <c r="F45" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-86100"}']</v>
+        <v>['histology', '{"tissue":"T-86100"}']</v>
       </c>
       <c r="G45" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7844,7 +7837,7 @@
       </c>
       <c r="F46" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-98000"}'],</v>
+        <v>['histology', '{"tissue":"T-98000"}'],</v>
       </c>
       <c r="G46" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7870,7 +7863,7 @@
       </c>
       <c r="F47" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-55300"}'],</v>
+        <v>['histology', '{"tissue":"T-55300"}'],</v>
       </c>
       <c r="G47" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7896,7 +7889,7 @@
       </c>
       <c r="F48" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-33010"}'],</v>
+        <v>['histology', '{"tissue":"T-33010"}'],</v>
       </c>
       <c r="G48" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7922,7 +7915,7 @@
       </c>
       <c r="F49" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-42000"}'],</v>
+        <v>['histology', '{"tissue":"T-42000"}'],</v>
       </c>
       <c r="G49" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7948,7 +7941,7 @@
       </c>
       <c r="F50" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-28000"}'],</v>
+        <v>['histology', '{"tissue":"T-28000"}'],</v>
       </c>
       <c r="G50" s="39" t="str">
         <f t="shared" si="2"/>
@@ -7974,7 +7967,7 @@
       </c>
       <c r="F51" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-08332"}'],</v>
+        <v>['histology', '{"tissue":"T-08332"}'],</v>
       </c>
       <c r="G51" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8000,7 +7993,7 @@
       </c>
       <c r="F52" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-25000"}'],</v>
+        <v>['histology', '{"tissue":"T-25000"}'],</v>
       </c>
       <c r="G52" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8026,7 +8019,7 @@
       </c>
       <c r="F53" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-91000"}'],</v>
+        <v>['histology', '{"tissue":"T-91000"}'],</v>
       </c>
       <c r="G53" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8052,7 +8045,7 @@
       </c>
       <c r="F54" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-04000"}'],</v>
+        <v>['histology', '{"tissue":"T-04000"}'],</v>
       </c>
       <c r="G54" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8078,7 +8071,7 @@
       </c>
       <c r="F55" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-08710"}'],</v>
+        <v>['histology', '{"tissue":"T-08710"}'],</v>
       </c>
       <c r="G55" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8104,7 +8097,7 @@
       </c>
       <c r="F56" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-07000"}'],</v>
+        <v>['histology', '{"tissue":"T-07000"}'],</v>
       </c>
       <c r="G56" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8130,7 +8123,7 @@
       </c>
       <c r="F57" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-96000"}'],</v>
+        <v>['histology', '{"tissue":"T-96000"}'],</v>
       </c>
       <c r="G57" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8156,7 +8149,7 @@
       </c>
       <c r="F58" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-71000"}'],</v>
+        <v>['histology', '{"tissue":"T-71000"}'],</v>
       </c>
       <c r="G58" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8182,7 +8175,7 @@
       </c>
       <c r="F59" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-93000"}'],</v>
+        <v>['histology', '{"tissue":"T-93000"}'],</v>
       </c>
       <c r="G59" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8208,7 +8201,7 @@
       </c>
       <c r="F60" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-59000"}'],</v>
+        <v>['histology', '{"tissue":"T-59000"}'],</v>
       </c>
       <c r="G60" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8234,7 +8227,7 @@
       </c>
       <c r="F61" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-08810"}'],</v>
+        <v>['histology', '{"tissue":"T-08810"}'],</v>
       </c>
       <c r="G61" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8260,7 +8253,7 @@
       </c>
       <c r="F62" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-56000"}'],</v>
+        <v>['histology', '{"tissue":"T-56000"}'],</v>
       </c>
       <c r="G62" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8286,7 +8279,7 @@
       </c>
       <c r="F63" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-57000"}'],</v>
+        <v>['histology', '{"tissue":"T-57000"}'],</v>
       </c>
       <c r="G63" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8312,7 +8305,7 @@
       </c>
       <c r="F64" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-74000"}'],</v>
+        <v>['histology', '{"tissue":"T-74000"}'],</v>
       </c>
       <c r="G64" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8338,7 +8331,7 @@
       </c>
       <c r="F65" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-77100"}'],</v>
+        <v>['histology', '{"tissue":"T-77100"}'],</v>
       </c>
       <c r="G65" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8364,7 +8357,7 @@
       </c>
       <c r="F66" s="38" t="str">
         <f t="shared" si="1"/>
-        <v>['histology', '{"code":"T-79100"}'],</v>
+        <v>['histology', '{"tissue":"T-79100"}'],</v>
       </c>
       <c r="G66" s="39" t="str">
         <f t="shared" si="2"/>
@@ -8389,8 +8382,8 @@
         <v/>
       </c>
       <c r="F67" s="38" t="str">
-        <f t="shared" ref="F67:F130" si="4">"['histology', '{""code"":"""&amp;TRIM($C67)&amp;"""}']"&amp;IF($A67=$A68,",","")</f>
-        <v>['histology', '{"code":"T-77500"}'],</v>
+        <f t="shared" ref="F67:F130" si="4">"['histology', '{""tissue"":"""&amp;TRIM($C67)&amp;"""}']"&amp;IF($A67=$A68,",","")</f>
+        <v>['histology', '{"tissue":"T-77500"}'],</v>
       </c>
       <c r="G67" s="39" t="str">
         <f t="shared" ref="G67:G130" si="5">IF($A67&lt;&gt;$A68,CHAR(10)&amp;"]"&amp;CHAR(10)&amp;"},{"&amp;CHAR(10),"")</f>
@@ -8416,7 +8409,7 @@
       </c>
       <c r="F68" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-78000"}'],</v>
+        <v>['histology', '{"tissue":"T-78000"}'],</v>
       </c>
       <c r="G68" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8442,7 +8435,7 @@
       </c>
       <c r="F69" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-X2003"}'],</v>
+        <v>['histology', '{"tissue":"T-X2003"}'],</v>
       </c>
       <c r="G69" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8468,7 +8461,7 @@
       </c>
       <c r="F70" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-62000"}'],</v>
+        <v>['histology', '{"tissue":"T-62000"}'],</v>
       </c>
       <c r="G70" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8494,7 +8487,7 @@
       </c>
       <c r="F71" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-63000"}'],</v>
+        <v>['histology', '{"tissue":"T-63000"}'],</v>
       </c>
       <c r="G71" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8520,7 +8513,7 @@
       </c>
       <c r="F72" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-64000"}'],</v>
+        <v>['histology', '{"tissue":"T-64000"}'],</v>
       </c>
       <c r="G72" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8546,7 +8539,7 @@
       </c>
       <c r="F73" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-671000"}'],</v>
+        <v>['histology', '{"tissue":"T-671000"}'],</v>
       </c>
       <c r="G73" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8572,7 +8565,7 @@
       </c>
       <c r="F74" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-67000"}'],</v>
+        <v>['histology', '{"tissue":"T-67000"}'],</v>
       </c>
       <c r="G74" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8598,7 +8591,7 @@
       </c>
       <c r="F75" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-08510"}']</v>
+        <v>['histology', '{"tissue":"T-08510"}']</v>
       </c>
       <c r="G75" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8629,7 +8622,7 @@
       </c>
       <c r="F76" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-98000"}'],</v>
+        <v>['histology', '{"tissue":"T-98000"}'],</v>
       </c>
       <c r="G76" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8655,7 +8648,7 @@
       </c>
       <c r="F77" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-55300"}'],</v>
+        <v>['histology', '{"tissue":"T-55300"}'],</v>
       </c>
       <c r="G77" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8681,7 +8674,7 @@
       </c>
       <c r="F78" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-33010"}'],</v>
+        <v>['histology', '{"tissue":"T-33010"}'],</v>
       </c>
       <c r="G78" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8707,7 +8700,7 @@
       </c>
       <c r="F79" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-42000"}'],</v>
+        <v>['histology', '{"tissue":"T-42000"}'],</v>
       </c>
       <c r="G79" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8733,7 +8726,7 @@
       </c>
       <c r="F80" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-28000"}'],</v>
+        <v>['histology', '{"tissue":"T-28000"}'],</v>
       </c>
       <c r="G80" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8759,7 +8752,7 @@
       </c>
       <c r="F81" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-08332"}'],</v>
+        <v>['histology', '{"tissue":"T-08332"}'],</v>
       </c>
       <c r="G81" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8785,7 +8778,7 @@
       </c>
       <c r="F82" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-25000"}'],</v>
+        <v>['histology', '{"tissue":"T-25000"}'],</v>
       </c>
       <c r="G82" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8811,7 +8804,7 @@
       </c>
       <c r="F83" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-91000"}'],</v>
+        <v>['histology', '{"tissue":"T-91000"}'],</v>
       </c>
       <c r="G83" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8837,7 +8830,7 @@
       </c>
       <c r="F84" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-04000"}'],</v>
+        <v>['histology', '{"tissue":"T-04000"}'],</v>
       </c>
       <c r="G84" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8863,7 +8856,7 @@
       </c>
       <c r="F85" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-08710"}'],</v>
+        <v>['histology', '{"tissue":"T-08710"}'],</v>
       </c>
       <c r="G85" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8889,7 +8882,7 @@
       </c>
       <c r="F86" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-07000"}'],</v>
+        <v>['histology', '{"tissue":"T-07000"}'],</v>
       </c>
       <c r="G86" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8915,7 +8908,7 @@
       </c>
       <c r="F87" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-96000"}'],</v>
+        <v>['histology', '{"tissue":"T-96000"}'],</v>
       </c>
       <c r="G87" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8941,7 +8934,7 @@
       </c>
       <c r="F88" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-71000"}'],</v>
+        <v>['histology', '{"tissue":"T-71000"}'],</v>
       </c>
       <c r="G88" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8967,7 +8960,7 @@
       </c>
       <c r="F89" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-93000"}'],</v>
+        <v>['histology', '{"tissue":"T-93000"}'],</v>
       </c>
       <c r="G89" s="39" t="str">
         <f t="shared" si="5"/>
@@ -8993,7 +8986,7 @@
       </c>
       <c r="F90" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-59000"}'],</v>
+        <v>['histology', '{"tissue":"T-59000"}'],</v>
       </c>
       <c r="G90" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9019,7 +9012,7 @@
       </c>
       <c r="F91" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-08810"}'],</v>
+        <v>['histology', '{"tissue":"T-08810"}'],</v>
       </c>
       <c r="G91" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9045,7 +9038,7 @@
       </c>
       <c r="F92" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-56000"}'],</v>
+        <v>['histology', '{"tissue":"T-56000"}'],</v>
       </c>
       <c r="G92" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9071,7 +9064,7 @@
       </c>
       <c r="F93" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-57000"}'],</v>
+        <v>['histology', '{"tissue":"T-57000"}'],</v>
       </c>
       <c r="G93" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9097,7 +9090,7 @@
       </c>
       <c r="F94" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-74000"}'],</v>
+        <v>['histology', '{"tissue":"T-74000"}'],</v>
       </c>
       <c r="G94" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9123,7 +9116,7 @@
       </c>
       <c r="F95" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-83000"}'],</v>
+        <v>['histology', '{"tissue":"T-83000"}'],</v>
       </c>
       <c r="G95" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9149,7 +9142,7 @@
       </c>
       <c r="F96" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-87000"}'],</v>
+        <v>['histology', '{"tissue":"T-87000"}'],</v>
       </c>
       <c r="G96" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9175,7 +9168,7 @@
       </c>
       <c r="F97" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-81000"}'],</v>
+        <v>['histology', '{"tissue":"T-81000"}'],</v>
       </c>
       <c r="G97" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9201,7 +9194,7 @@
       </c>
       <c r="F98" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-82000"}'],</v>
+        <v>['histology', '{"tissue":"T-82000"}'],</v>
       </c>
       <c r="G98" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9227,7 +9220,7 @@
       </c>
       <c r="F99" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-86100"}'],</v>
+        <v>['histology', '{"tissue":"T-86100"}'],</v>
       </c>
       <c r="G99" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9253,7 +9246,7 @@
       </c>
       <c r="F100" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-X2003"}'],</v>
+        <v>['histology', '{"tissue":"T-X2003"}'],</v>
       </c>
       <c r="G100" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9279,7 +9272,7 @@
       </c>
       <c r="F101" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-62000"}'],</v>
+        <v>['histology', '{"tissue":"T-62000"}'],</v>
       </c>
       <c r="G101" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9305,7 +9298,7 @@
       </c>
       <c r="F102" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-63000"}'],</v>
+        <v>['histology', '{"tissue":"T-63000"}'],</v>
       </c>
       <c r="G102" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9331,7 +9324,7 @@
       </c>
       <c r="F103" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-64000"}'],</v>
+        <v>['histology', '{"tissue":"T-64000"}'],</v>
       </c>
       <c r="G103" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9357,7 +9350,7 @@
       </c>
       <c r="F104" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-671000"}'],</v>
+        <v>['histology', '{"tissue":"T-671000"}'],</v>
       </c>
       <c r="G104" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9383,7 +9376,7 @@
       </c>
       <c r="F105" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-67000"}'],</v>
+        <v>['histology', '{"tissue":"T-67000"}'],</v>
       </c>
       <c r="G105" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9409,7 +9402,7 @@
       </c>
       <c r="F106" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-08510"}']</v>
+        <v>['histology', '{"tissue":"T-08510"}']</v>
       </c>
       <c r="G106" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9440,7 +9433,7 @@
       </c>
       <c r="F107" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-08710"}'],</v>
+        <v>['histology', '{"tissue":"T-08710"}'],</v>
       </c>
       <c r="G107" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9466,7 +9459,7 @@
       </c>
       <c r="F108" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-08650"}'],</v>
+        <v>['histology', '{"tissue":"T-08650"}'],</v>
       </c>
       <c r="G108" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9492,7 +9485,7 @@
       </c>
       <c r="F109" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-08810"}'],</v>
+        <v>['histology', '{"tissue":"T-08810"}'],</v>
       </c>
       <c r="G109" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9518,7 +9511,7 @@
       </c>
       <c r="F110" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-08510"}'],</v>
+        <v>['histology', '{"tissue":"T-08510"}'],</v>
       </c>
       <c r="G110" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9544,7 +9537,7 @@
       </c>
       <c r="F111" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-08420"}'],</v>
+        <v>['histology', '{"tissue":"T-08420"}'],</v>
       </c>
       <c r="G111" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9570,7 +9563,7 @@
       </c>
       <c r="F112" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-08160"}'],</v>
+        <v>['histology', '{"tissue":"T-08160"}'],</v>
       </c>
       <c r="G112" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9596,7 +9589,7 @@
       </c>
       <c r="F113" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-08332"}'],</v>
+        <v>['histology', '{"tissue":"T-08332"}'],</v>
       </c>
       <c r="G113" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9622,7 +9615,7 @@
       </c>
       <c r="F114" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-08520"}'],</v>
+        <v>['histology', '{"tissue":"T-08520"}'],</v>
       </c>
       <c r="G114" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9648,7 +9641,7 @@
       </c>
       <c r="F115" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-55100"}'],</v>
+        <v>['histology', '{"tissue":"T-55100"}'],</v>
       </c>
       <c r="G115" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9674,7 +9667,7 @@
       </c>
       <c r="F116" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-55300"}'],</v>
+        <v>['histology', '{"tissue":"T-55300"}'],</v>
       </c>
       <c r="G116" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9700,7 +9693,7 @@
       </c>
       <c r="F117" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-53000"}'],</v>
+        <v>['histology', '{"tissue":"T-53000"}'],</v>
       </c>
       <c r="G117" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9726,7 +9719,7 @@
       </c>
       <c r="F118" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-61100"}'],</v>
+        <v>['histology', '{"tissue":"T-61100"}'],</v>
       </c>
       <c r="G118" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9752,7 +9745,7 @@
       </c>
       <c r="F119" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-60110"}'],</v>
+        <v>['histology', '{"tissue":"T-60110"}'],</v>
       </c>
       <c r="G119" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9778,7 +9771,7 @@
       </c>
       <c r="F120" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-51300"}'],</v>
+        <v>['histology', '{"tissue":"T-51300"}'],</v>
       </c>
       <c r="G120" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9804,7 +9797,7 @@
       </c>
       <c r="F121" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-93000"}'],</v>
+        <v>['histology', '{"tissue":"T-93000"}'],</v>
       </c>
       <c r="G121" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9830,7 +9823,7 @@
       </c>
       <c r="F122" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-96000"}'],</v>
+        <v>['histology', '{"tissue":"T-96000"}'],</v>
       </c>
       <c r="G122" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9856,7 +9849,7 @@
       </c>
       <c r="F123" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-98000"}'],</v>
+        <v>['histology', '{"tissue":"T-98000"}'],</v>
       </c>
       <c r="G123" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9882,7 +9875,7 @@
       </c>
       <c r="F124" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-01000"}'],</v>
+        <v>['histology', '{"tissue":"T-01000"}'],</v>
       </c>
       <c r="G124" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9908,7 +9901,7 @@
       </c>
       <c r="F125" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-06000"}'],</v>
+        <v>['histology', '{"tissue":"T-06000"}'],</v>
       </c>
       <c r="G125" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9934,7 +9927,7 @@
       </c>
       <c r="F126" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-13000"}'],</v>
+        <v>['histology', '{"tissue":"T-13000"}'],</v>
       </c>
       <c r="G126" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9960,7 +9953,7 @@
       </c>
       <c r="F127" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-X2003"}'],</v>
+        <v>['histology', '{"tissue":"T-X2003"}'],</v>
       </c>
       <c r="G127" s="39" t="str">
         <f t="shared" si="5"/>
@@ -9986,7 +9979,7 @@
       </c>
       <c r="F128" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-91000"}'],</v>
+        <v>['histology', '{"tissue":"T-91000"}'],</v>
       </c>
       <c r="G128" s="39" t="str">
         <f t="shared" si="5"/>
@@ -10012,7 +10005,7 @@
       </c>
       <c r="F129" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-X7410"}'],</v>
+        <v>['histology', '{"tissue":"T-X7410"}'],</v>
       </c>
       <c r="G129" s="39" t="str">
         <f t="shared" si="5"/>
@@ -10038,7 +10031,7 @@
       </c>
       <c r="F130" s="38" t="str">
         <f t="shared" si="4"/>
-        <v>['histology', '{"code":"T-07000"}'],</v>
+        <v>['histology', '{"tissue":"T-07000"}'],</v>
       </c>
       <c r="G130" s="39" t="str">
         <f t="shared" si="5"/>
@@ -10063,8 +10056,8 @@
         <v/>
       </c>
       <c r="F131" s="38" t="str">
-        <f t="shared" ref="F131:F149" si="7">"['histology', '{""code"":"""&amp;TRIM($C131)&amp;"""}']"&amp;IF($A131=$A132,",","")</f>
-        <v>['histology', '{"code":"T-42000"}'],</v>
+        <f t="shared" ref="F131:F149" si="7">"['histology', '{""tissue"":"""&amp;TRIM($C131)&amp;"""}']"&amp;IF($A131=$A132,",","")</f>
+        <v>['histology', '{"tissue":"T-42000"}'],</v>
       </c>
       <c r="G131" s="39" t="str">
         <f t="shared" ref="G131:G149" si="8">IF($A131&lt;&gt;$A132,CHAR(10)&amp;"]"&amp;CHAR(10)&amp;"},{"&amp;CHAR(10),"")</f>
@@ -10090,7 +10083,7 @@
       </c>
       <c r="F132" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-33010"}'],</v>
+        <v>['histology', '{"tissue":"T-33010"}'],</v>
       </c>
       <c r="G132" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10116,7 +10109,7 @@
       </c>
       <c r="F133" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-28000"}'],</v>
+        <v>['histology', '{"tissue":"T-28000"}'],</v>
       </c>
       <c r="G133" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10142,7 +10135,7 @@
       </c>
       <c r="F134" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-56000"}'],</v>
+        <v>['histology', '{"tissue":"T-56000"}'],</v>
       </c>
       <c r="G134" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10168,7 +10161,7 @@
       </c>
       <c r="F135" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-57000"}'],</v>
+        <v>['histology', '{"tissue":"T-57000"}'],</v>
       </c>
       <c r="G135" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10194,7 +10187,7 @@
       </c>
       <c r="F136" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-59000"}'],</v>
+        <v>['histology', '{"tissue":"T-59000"}'],</v>
       </c>
       <c r="G136" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10220,7 +10213,7 @@
       </c>
       <c r="F137" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-71000"}'],</v>
+        <v>['histology', '{"tissue":"T-71000"}'],</v>
       </c>
       <c r="G137" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10246,7 +10239,7 @@
       </c>
       <c r="F138" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-74000"}'],</v>
+        <v>['histology', '{"tissue":"T-74000"}'],</v>
       </c>
       <c r="G138" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10272,7 +10265,7 @@
       </c>
       <c r="F139" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-62000"}'],</v>
+        <v>['histology', '{"tissue":"T-62000"}'],</v>
       </c>
       <c r="G139" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10298,7 +10291,7 @@
       </c>
       <c r="F140" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-63000"}'],</v>
+        <v>['histology', '{"tissue":"T-63000"}'],</v>
       </c>
       <c r="G140" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10324,7 +10317,7 @@
       </c>
       <c r="F141" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-64300"}'],</v>
+        <v>['histology', '{"tissue":"T-64300"}'],</v>
       </c>
       <c r="G141" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10350,7 +10343,7 @@
       </c>
       <c r="F142" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-65100"}'],</v>
+        <v>['histology', '{"tissue":"T-65100"}'],</v>
       </c>
       <c r="G142" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10376,7 +10369,7 @@
       </c>
       <c r="F143" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-65200"}'],</v>
+        <v>['histology', '{"tissue":"T-65200"}'],</v>
       </c>
       <c r="G143" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10402,7 +10395,7 @@
       </c>
       <c r="F144" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-67000"}'],</v>
+        <v>['histology', '{"tissue":"T-67000"}'],</v>
       </c>
       <c r="G144" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10428,7 +10421,7 @@
       </c>
       <c r="F145" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-68000"}'],</v>
+        <v>['histology', '{"tissue":"T-68000"}'],</v>
       </c>
       <c r="G145" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10454,7 +10447,7 @@
       </c>
       <c r="F146" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-77100"}'],</v>
+        <v>['histology', '{"tissue":"T-77100"}'],</v>
       </c>
       <c r="G146" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10480,7 +10473,7 @@
       </c>
       <c r="F147" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-79100"}'],</v>
+        <v>['histology', '{"tissue":"T-79100"}'],</v>
       </c>
       <c r="G147" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10506,7 +10499,7 @@
       </c>
       <c r="F148" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-77500"}'],</v>
+        <v>['histology', '{"tissue":"T-77500"}'],</v>
       </c>
       <c r="G148" s="39" t="str">
         <f t="shared" si="8"/>
@@ -10532,7 +10525,7 @@
       </c>
       <c r="F149" s="38" t="str">
         <f t="shared" si="7"/>
-        <v>['histology', '{"code":"T-78000"}']</v>
+        <v>['histology', '{"tissue":"T-78000"}']</v>
       </c>
       <c r="G149" s="39" t="str">
         <f t="shared" si="8"/>

--- a/onprc_ehr/tools/excelTemplates/Form Templates v6.xlsx
+++ b/onprc_ehr/tools/excelTemplates/Form Templates v6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="22995" windowHeight="11565" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="22995" windowHeight="11565" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SOAP" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="467">
   <si>
     <t>S</t>
   </si>
@@ -1383,6 +1383,111 @@
   </si>
   <si>
     <t>SIV Male Histology Findings</t>
+  </si>
+  <si>
+    <t>ORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESB cubes </t>
+  </si>
+  <si>
+    <t>Electrolytes (ORT)</t>
+  </si>
+  <si>
+    <t>E-YY870</t>
+  </si>
+  <si>
+    <t>E-YY728</t>
+  </si>
+  <si>
+    <t>BUPIVICAINE HCl (5mg/ml)</t>
+  </si>
+  <si>
+    <t>BUPIVICAINE</t>
+  </si>
+  <si>
+    <t>Telazol</t>
+  </si>
+  <si>
+    <t>E-YY992</t>
+  </si>
+  <si>
+    <t>Sedated for physical examination, BAR prior to sedation.</t>
+  </si>
+  <si>
+    <t>E-87255</t>
+  </si>
+  <si>
+    <t>Surgery Time Of</t>
+  </si>
+  <si>
+    <t>Ketamine injection(100mg/ml)                                  100         mg                          IM</t>
+  </si>
+  <si>
+    <t>Glycopyrrolate (0.2mg/ml)                                          0.5          cc                            IM</t>
+  </si>
+  <si>
+    <t>Oxygen Gas                                                                        1              L/M                        INH</t>
+  </si>
+  <si>
+    <t>Isoflurane (ISOFLO)                                                        1.25        %                            INH</t>
+  </si>
+  <si>
+    <t>Electrolyte, Lactated Ringer                                         10           ml/kg/hr              IV</t>
+  </si>
+  <si>
+    <t>Hydromorphone injectable HCL (2mg/ml)            0.5          mg                          IV</t>
+  </si>
+  <si>
+    <t>Hydromorphone injectable HCL (2mg/ml)            0.5          mg                          IM</t>
+  </si>
+  <si>
+    <t>Bupivicaine HCL (5mg/ml)                                            0.4          ml                           ID</t>
+  </si>
+  <si>
+    <t>Lidocaine 1% with epinephrine                                  0.1          ml                           ID</t>
+  </si>
+  <si>
+    <t>Ophthalmic Ointment                                                    1              units                      OU</t>
+  </si>
+  <si>
+    <t>E-87250</t>
+  </si>
+  <si>
+    <t>POTASSIUM CHLORIDE (KCL) injectable (2meq/ml)</t>
+  </si>
+  <si>
+    <t>Potassium chloride liquid (2.6 meq/ml) - added to ORT pan</t>
+  </si>
+  <si>
+    <t>F-61570</t>
+  </si>
+  <si>
+    <t>F-62400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dexamethasone </t>
+  </si>
+  <si>
+    <t>E-85151</t>
+  </si>
+  <si>
+    <t>E-YY670</t>
+  </si>
+  <si>
+    <t>E-50150</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Pepto</t>
+  </si>
+  <si>
+    <t>KCL</t>
+  </si>
+  <si>
+    <t>tabs</t>
   </si>
   <si>
     <t>External:
@@ -1416,112 +1521,65 @@
 Central Nervous System:
 Brain: no gross lesions
 Spinal cord: not examined
-SUMMARY OF GROSS FINDINGS</t>
-  </si>
-  <si>
-    <t>ORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESB cubes </t>
-  </si>
-  <si>
-    <t>Electrolytes (ORT)</t>
-  </si>
-  <si>
-    <t>E-YY870</t>
-  </si>
-  <si>
-    <t>E-YY728</t>
-  </si>
-  <si>
-    <t>BUPIVICAINE HCl (5mg/ml)</t>
-  </si>
-  <si>
-    <t>BUPIVICAINE</t>
-  </si>
-  <si>
-    <t>Telazol</t>
-  </si>
-  <si>
-    <t>E-YY992</t>
-  </si>
-  <si>
-    <t>Sedated for physical examination, BAR prior to sedation.</t>
-  </si>
-  <si>
-    <t>E-87255</t>
-  </si>
-  <si>
-    <t>Surgery Time Of</t>
-  </si>
-  <si>
-    <t>Ketamine injection(100mg/ml)                                  100         mg                          IM</t>
-  </si>
-  <si>
-    <t>Glycopyrrolate (0.2mg/ml)                                          0.5          cc                            IM</t>
-  </si>
-  <si>
-    <t>Oxygen Gas                                                                        1              L/M                        INH</t>
-  </si>
-  <si>
-    <t>Isoflurane (ISOFLO)                                                        1.25        %                            INH</t>
-  </si>
-  <si>
-    <t>Electrolyte, Lactated Ringer                                         10           ml/kg/hr              IV</t>
-  </si>
-  <si>
-    <t>Hydromorphone injectable HCL (2mg/ml)            0.5          mg                          IV</t>
-  </si>
-  <si>
-    <t>Hydromorphone injectable HCL (2mg/ml)            0.5          mg                          IM</t>
-  </si>
-  <si>
-    <t>Bupivicaine HCL (5mg/ml)                                            0.4          ml                           ID</t>
-  </si>
-  <si>
-    <t>Lidocaine 1% with epinephrine                                  0.1          ml                           ID</t>
-  </si>
-  <si>
-    <t>Ophthalmic Ointment                                                    1              units                      OU</t>
-  </si>
-  <si>
-    <t>E-87250</t>
-  </si>
-  <si>
-    <t>POTASSIUM CHLORIDE (KCL) injectable (2meq/ml)</t>
-  </si>
-  <si>
-    <t>Potassium chloride liquid (2.6 meq/ml) - added to ORT pan</t>
-  </si>
-  <si>
-    <t>F-61570</t>
-  </si>
-  <si>
-    <t>F-62400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dexamethasone </t>
-  </si>
-  <si>
-    <t>E-85151</t>
-  </si>
-  <si>
-    <t>E-YY670</t>
-  </si>
-  <si>
-    <t>E-50150</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Pepto</t>
-  </si>
-  <si>
-    <t>KCL</t>
-  </si>
-  <si>
-    <t>tabs</t>
+SUMMARY OF GROSS FINDINGS
+MICROBIOLOGY</t>
+  </si>
+  <si>
+    <t>External: 
+Body condition score ; weight kg
+Hair coat
+Eyes, oral cavity: No gross lesions
+Body Cavities:
+Subcutaneous and visceral fat stores
+Respiratory System: 
+Cardiovascular System: 
+Hemopoietic System: 
+Thymic tissue,
+Mesenteric lymph nodes
+Spleen, other visceral and peripheral lymph nodes: No gross lesions
+Bone marrow not examined
+Liver, Gallbladder and Pancreas: 
+Gastrointestinal Tract:. 
+Submandibular salivary gland, esophagus no gross lesions
+Esophagus collected for Tissue Distribution Program, mucosa not examined, externally: No gross lesions
+Stomach
+Contents:
+Mucosa: No gross lesions
+Small intestine 
+Contents:
+Mucosa: No gross lesions
+Large intestine
+Contents:
+Mucosa: No gross lesions
+Genitourinary System: 
+Kidneys, ureters, reproductive tract: No gross lesions
+Urinary bladder contains ~ ; cystic mucosa: No gross lesions
+Endocrine System: 
+No gross lesions
+Musculoskeletal System: 
+Stifle, shoulder, coxofemoral joints: No gross lesions
+Central Nervous System: 
+Brain: No gross lesions
+Spinal cord not examined
+SUMMARY OF GROSS FINDINGS
+MICROBIOLOGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLINICAL HISTORY: This animal had been identified as an underutilized resource and was submitted for necropsy for tissue distribution assigned to a short term protocol entitled, "." She was submitted for necropsy for tissue distribution.
+Campylobacter coli and Shigella flexneri
+presented for necropsy under ketamine sedation, deeply anesthetized with sodium pentobarbital intravenously and exsanguinated via the abdominal aorta. 
+Cerebrospinal fluid is collected from the cisterna magna. The sample is clear and colorless.
+The cephalic structures are perfused with saline followed by paraformaldehyde via the common trunk, brachiocephalic and right carotid arteries. 
+Tissues are collected for the Tissue Distribution program.
+COMMENTS: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLINICAL HISTORY: This is a macaque, born at the ONPRC, currently assigned to IACUC "" under Dr. History includes
+The animal is presented for necropsy under ketamine sedation, deeply anesthetized with sodium pentobarbital intravenously and exsanguinated via the abdominal aorta. 
+Cerebrospinal fluid is collected from the cisterna magna. The sample is clear and colorless.
+The cephalic structures are perfused with saline followed by paraformaldehyde via the common trunk, brachiocephalic and right carotid arteries. 
+Tissues are collected for the assigned investigator and Tissue Distribution program.
+COMMENTS: </t>
   </si>
 </sst>
 </file>
@@ -1789,14 +1847,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -2259,7 +2310,7 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K3" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2306,7 +2357,7 @@
         <v>165</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2489,7 +2540,7 @@
         <v>166</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2538,7 +2589,7 @@
         <v>169</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3670,7 +3721,7 @@
         <v>101</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="28" t="s">
@@ -3796,7 +3847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2:K76"/>
     </sheetView>
@@ -3887,7 +3938,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="60">
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
@@ -3895,13 +3946,13 @@
         <v>165</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>208</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>216</v>
@@ -3985,7 +4036,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="60">
+    <row r="5" spans="1:15">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -4029,7 +4080,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="60">
+    <row r="6" spans="1:15">
       <c r="A6" s="11" t="s">
         <v>38</v>
       </c>
@@ -4073,7 +4124,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60">
+    <row r="7" spans="1:15">
       <c r="A7" s="11" t="s">
         <v>38</v>
       </c>
@@ -4084,10 +4135,10 @@
         <v>217</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>180</v>
@@ -4117,7 +4168,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="60">
+    <row r="8" spans="1:15">
       <c r="A8" s="11" t="s">
         <v>38</v>
       </c>
@@ -4128,10 +4179,10 @@
         <v>217</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>452</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>216</v>
@@ -4161,7 +4212,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="60">
+    <row r="9" spans="1:15">
       <c r="A9" s="11" t="s">
         <v>38</v>
       </c>
@@ -4205,7 +4256,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="60">
+    <row r="10" spans="1:15">
       <c r="A10" s="11" t="s">
         <v>38</v>
       </c>
@@ -4249,7 +4300,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="60">
+    <row r="11" spans="1:15" ht="15.75">
       <c r="A11" s="11" t="s">
         <v>38</v>
       </c>
@@ -4257,13 +4308,13 @@
         <v>166</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>180</v>
@@ -4293,7 +4344,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="60">
+    <row r="12" spans="1:15" ht="15.75">
       <c r="A12" s="11" t="s">
         <v>38</v>
       </c>
@@ -4301,10 +4352,10 @@
         <v>166</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="8" t="s">
@@ -4389,7 +4440,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="60">
+    <row r="14" spans="1:15">
       <c r="A14" s="11" t="s">
         <v>38</v>
       </c>
@@ -4433,7 +4484,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="60">
+    <row r="15" spans="1:15">
       <c r="A15" s="11" t="s">
         <v>38</v>
       </c>
@@ -4477,7 +4528,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="60">
+    <row r="16" spans="1:15">
       <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
@@ -4485,10 +4536,10 @@
         <v>169</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>452</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>216</v>
@@ -4518,7 +4569,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="60">
+    <row r="17" spans="1:15">
       <c r="A17" s="11" t="s">
         <v>38</v>
       </c>
@@ -4562,7 +4613,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="60">
+    <row r="18" spans="1:15">
       <c r="A18" s="11" t="s">
         <v>38</v>
       </c>
@@ -4606,7 +4657,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="60">
+    <row r="19" spans="1:15" ht="15.75">
       <c r="A19" s="11" t="s">
         <v>38</v>
       </c>
@@ -4614,13 +4665,13 @@
         <v>169</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>180</v>
@@ -4650,7 +4701,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="60">
+    <row r="20" spans="1:15">
       <c r="A20" s="11" t="s">
         <v>38</v>
       </c>
@@ -4694,7 +4745,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="60">
+    <row r="21" spans="1:15">
       <c r="A21" s="11" t="s">
         <v>38</v>
       </c>
@@ -4738,7 +4789,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="60">
+    <row r="22" spans="1:15" ht="15.75">
       <c r="A22" s="11" t="s">
         <v>38</v>
       </c>
@@ -4746,13 +4797,13 @@
         <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>180</v>
@@ -4782,7 +4833,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="60">
+    <row r="23" spans="1:15">
       <c r="A23" s="11" t="s">
         <v>38</v>
       </c>
@@ -4826,7 +4877,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="60">
+    <row r="24" spans="1:15">
       <c r="A24" s="11" t="s">
         <v>38</v>
       </c>
@@ -4870,7 +4921,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="60">
+    <row r="25" spans="1:15" ht="15.75">
       <c r="A25" s="11" t="s">
         <v>38</v>
       </c>
@@ -4878,13 +4929,13 @@
         <v>169</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>180</v>
@@ -4968,7 +5019,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="60">
+    <row r="27" spans="1:15">
       <c r="A27" s="11" t="s">
         <v>37</v>
       </c>
@@ -5012,7 +5063,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="60">
+    <row r="28" spans="1:15">
       <c r="A28" s="11" t="s">
         <v>37</v>
       </c>
@@ -5056,7 +5107,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="60">
+    <row r="29" spans="1:15">
       <c r="A29" s="11" t="s">
         <v>37</v>
       </c>
@@ -5100,7 +5151,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="60">
+    <row r="30" spans="1:15">
       <c r="A30" s="11" t="s">
         <v>37</v>
       </c>
@@ -5144,7 +5195,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="60">
+    <row r="31" spans="1:15">
       <c r="A31" s="11" t="s">
         <v>37</v>
       </c>
@@ -5188,7 +5239,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="60">
+    <row r="32" spans="1:15">
       <c r="A32" s="11" t="s">
         <v>37</v>
       </c>
@@ -5232,19 +5283,19 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="60">
+    <row r="33" spans="1:15">
       <c r="A33" s="11"/>
       <c r="B33" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D33" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="E33" s="27" t="s">
         <v>433</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>434</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>216</v>
@@ -5274,7 +5325,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="60">
+    <row r="34" spans="1:15">
       <c r="A34" s="11" t="s">
         <v>37</v>
       </c>
@@ -5318,7 +5369,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="60">
+    <row r="35" spans="1:15">
       <c r="A35" s="11" t="s">
         <v>37</v>
       </c>
@@ -5362,7 +5413,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="60">
+    <row r="36" spans="1:15" ht="15.75">
       <c r="A36" s="11" t="s">
         <v>37</v>
       </c>
@@ -5370,13 +5421,13 @@
         <v>43</v>
       </c>
       <c r="C36" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="D36" s="44" t="s">
         <v>436</v>
       </c>
-      <c r="D36" s="44" t="s">
-        <v>437</v>
-      </c>
       <c r="E36" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>216</v>
@@ -5460,7 +5511,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="60">
+    <row r="38" spans="1:15">
       <c r="A38" s="11" t="s">
         <v>37</v>
       </c>
@@ -5504,7 +5555,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="60">
+    <row r="39" spans="1:15">
       <c r="A39" s="11" t="s">
         <v>37</v>
       </c>
@@ -5548,7 +5599,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="60">
+    <row r="40" spans="1:15">
       <c r="A40" s="11" t="s">
         <v>37</v>
       </c>
@@ -5592,7 +5643,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="60">
+    <row r="41" spans="1:15">
       <c r="A41" s="11" t="s">
         <v>37</v>
       </c>
@@ -5636,7 +5687,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="60">
+    <row r="42" spans="1:15">
       <c r="A42" s="11" t="s">
         <v>37</v>
       </c>
@@ -5680,7 +5731,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="60">
+    <row r="43" spans="1:15">
       <c r="A43" s="11" t="s">
         <v>37</v>
       </c>
@@ -5778,7 +5829,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="60">
+    <row r="45" spans="1:15">
       <c r="A45" s="11" t="s">
         <v>66</v>
       </c>
@@ -5822,7 +5873,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="60">
+    <row r="46" spans="1:15">
       <c r="A46" s="11" t="s">
         <v>66</v>
       </c>
@@ -5867,7 +5918,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="60">
+    <row r="47" spans="1:15">
       <c r="A47" s="11" t="s">
         <v>66</v>
       </c>
@@ -5965,7 +6016,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="60">
+    <row r="49" spans="1:15">
       <c r="A49" s="11" t="s">
         <v>37</v>
       </c>
@@ -6009,7 +6060,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="60">
+    <row r="50" spans="1:15">
       <c r="A50" s="11" t="s">
         <v>37</v>
       </c>
@@ -6053,7 +6104,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="60">
+    <row r="51" spans="1:15">
       <c r="A51" s="11" t="s">
         <v>37</v>
       </c>
@@ -6097,7 +6148,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="60">
+    <row r="52" spans="1:15">
       <c r="A52" s="11" t="s">
         <v>37</v>
       </c>
@@ -6141,7 +6192,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="60">
+    <row r="53" spans="1:15">
       <c r="A53" s="11" t="s">
         <v>37</v>
       </c>
@@ -6185,7 +6236,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="60">
+    <row r="54" spans="1:15">
       <c r="A54" s="11" t="s">
         <v>37</v>
       </c>
@@ -6229,7 +6280,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="60">
+    <row r="55" spans="1:15">
       <c r="A55" s="11" t="s">
         <v>37</v>
       </c>
@@ -6273,7 +6324,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="60">
+    <row r="56" spans="1:15" ht="15.75">
       <c r="A56" s="11" t="s">
         <v>37</v>
       </c>
@@ -6281,13 +6332,13 @@
         <v>63</v>
       </c>
       <c r="C56" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="D56" s="44" t="s">
         <v>456</v>
       </c>
-      <c r="D56" s="44" t="s">
-        <v>457</v>
-      </c>
       <c r="E56" s="43" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>216</v>
@@ -6317,7 +6368,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="60">
+    <row r="57" spans="1:15">
       <c r="A57" s="11" t="s">
         <v>37</v>
       </c>
@@ -6361,7 +6412,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="60">
+    <row r="58" spans="1:15">
       <c r="A58" s="11" t="s">
         <v>37</v>
       </c>
@@ -6405,7 +6456,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="60">
+    <row r="59" spans="1:15">
       <c r="A59" s="11" t="s">
         <v>37</v>
       </c>
@@ -6449,7 +6500,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="60">
+    <row r="60" spans="1:15">
       <c r="A60" s="11" t="s">
         <v>37</v>
       </c>
@@ -6493,7 +6544,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="60">
+    <row r="61" spans="1:15">
       <c r="A61" s="11" t="s">
         <v>37</v>
       </c>
@@ -6537,7 +6588,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="60">
+    <row r="62" spans="1:15">
       <c r="A62" s="11" t="s">
         <v>37</v>
       </c>
@@ -6545,13 +6596,13 @@
         <v>63</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D62" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="E62" s="46" t="s">
         <v>459</v>
-      </c>
-      <c r="E62" s="46" t="s">
-        <v>460</v>
       </c>
       <c r="F62" s="45" t="s">
         <v>180</v>
@@ -6689,7 +6740,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="60">
+    <row r="65" spans="1:15">
       <c r="A65" s="11" t="s">
         <v>37</v>
       </c>
@@ -6733,7 +6784,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="60">
+    <row r="66" spans="1:15">
       <c r="A66" s="11" t="s">
         <v>37</v>
       </c>
@@ -6777,7 +6828,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="60">
+    <row r="67" spans="1:15">
       <c r="A67" s="11" t="s">
         <v>37</v>
       </c>
@@ -6821,7 +6872,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="60">
+    <row r="68" spans="1:15">
       <c r="A68" s="11" t="s">
         <v>37</v>
       </c>
@@ -6865,7 +6916,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="60">
+    <row r="69" spans="1:15">
       <c r="A69" s="11" t="s">
         <v>37</v>
       </c>
@@ -6909,7 +6960,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="60">
+    <row r="70" spans="1:15">
       <c r="A70" s="11" t="s">
         <v>37</v>
       </c>
@@ -6953,7 +7004,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="60">
+    <row r="71" spans="1:15">
       <c r="A71" s="11" t="s">
         <v>37</v>
       </c>
@@ -6997,7 +7048,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="60">
+    <row r="72" spans="1:15">
       <c r="A72" s="11" t="s">
         <v>37</v>
       </c>
@@ -7041,7 +7092,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="60">
+    <row r="73" spans="1:15">
       <c r="A73" s="11" t="s">
         <v>37</v>
       </c>
@@ -7139,7 +7190,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="60">
+    <row r="75" spans="1:15">
       <c r="A75" s="11" t="s">
         <v>37</v>
       </c>
@@ -7183,7 +7234,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="60">
+    <row r="76" spans="1:15">
       <c r="A76" s="11" t="s">
         <v>37</v>
       </c>
@@ -7235,7 +7286,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
@@ -7250,7 +7301,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="C79" s="31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -7259,7 +7310,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="C80" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -7268,7 +7319,7 @@
     </row>
     <row r="81" spans="3:14">
       <c r="C81" s="31" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -7277,7 +7328,7 @@
     </row>
     <row r="82" spans="3:14">
       <c r="C82" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -7286,7 +7337,7 @@
     </row>
     <row r="83" spans="3:14">
       <c r="C83" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
@@ -7295,7 +7346,7 @@
     </row>
     <row r="84" spans="3:14">
       <c r="C84" s="31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
@@ -7304,7 +7355,7 @@
     </row>
     <row r="85" spans="3:14">
       <c r="C85" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
@@ -7313,7 +7364,7 @@
     </row>
     <row r="86" spans="3:14">
       <c r="C86" s="31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
@@ -7322,7 +7373,7 @@
     </row>
     <row r="87" spans="3:14">
       <c r="C87" s="31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
@@ -7331,7 +7382,7 @@
     </row>
     <row r="88" spans="3:14">
       <c r="C88" s="31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
@@ -7522,7 +7573,7 @@
     <sortCondition ref="F2:F94"/>
   </sortState>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>ISBLANK(D22)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11476,10 +11527,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D3"/>
+  <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11489,11 +11540,41 @@
   <sheetData>
     <row r="3" spans="2:4" ht="409.5">
       <c r="B3" s="35" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="D3" t="str">
         <f>"'{""remark"":"&amp;""""&amp;SUBSTITUTE(SUBSTITUTE(B3, CHAR(10), "\\n"), "'", "\'")&amp;"""}'"</f>
-        <v>'{"remark":"External:\\nPresented is a    macaque, weighing  kg, in   BCS.\\nThe hair coat is\\n \\nBody Cavities:\\n__________ subcutaneous and visceral fat stores\\n \\nRespiratory System:\\n \\nCardiovascular System:\\n \\nHemopoietic System:\\n__________ amount of thymic tissue\\nSpleen, visceral and peripheral lymph nodes: no gross lesions\\nBone marrow not examined\\n \\nLiver and Pancreas:\\n \\nGastrointestinal Tract:\\nSalivary glands, esophagus: no gross lesions\\nStomach\\nContents:\\nMucosa: no gross lesions\\nSmall intestinal\\nContents:\\nMucosa: no gross lesions\\nLarge intestinal\\nContents:\\nMucosa: no gross lesions\\n \\nGenitourinary System:\\nKidneys, ureters, urinary bladder, reproductive tract: no gross lesions\\n \\nEndocrine System:\\n \\nMusculoskeletal System:\\nStifle, shoulder, coxofemoral joints: no gross lesions\\n \\nCentral Nervous System:\\nBrain: no gross lesions\\nSpinal cord: not examined\\n \\nSUMMARY OF GROSS FINDINGS"}'</v>
+        <v>'{"remark":"External:\\nPresented is a    macaque, weighing  kg, in   BCS.\\nThe hair coat is\\n\\nBody Cavities:\\n__________ subcutaneous and visceral fat stores\\n\\nRespiratory System:\\n\\nCardiovascular System:\\n\\nHemopoietic System:\\n__________ amount of thymic tissue\\nSpleen, visceral and peripheral lymph nodes: no gross lesions\\nBone marrow not examined\\n\\nLiver and Pancreas:\\n\\nGastrointestinal Tract:\\nSalivary glands, esophagus: no gross lesions\\nStomach\\nContents:\\nMucosa: no gross lesions\\nSmall intestinal\\nContents:\\nMucosa: no gross lesions\\nLarge intestinal\\nContents:\\nMucosa: no gross lesions\\n\\nGenitourinary System:\\nKidneys, ureters, urinary bladder, reproductive tract: no gross lesions\\n\\nEndocrine System:\\n\\nMusculoskeletal System:\\nStifle, shoulder, coxofemoral joints: no gross lesions\\n\\nCentral Nervous System:\\nBrain: no gross lesions\\nSpinal cord: not examined\\n\\nSUMMARY OF GROSS FINDINGS\\n\\nMICROBIOLOGY"}'</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="30" customFormat="1" ht="409.5">
+      <c r="B5" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" s="30" t="str">
+        <f>"'{""remark"":"&amp;""""&amp;SUBSTITUTE(SUBSTITUTE(B5, CHAR(10), "\\n"), "'", "\'")&amp;"""}'"</f>
+        <v>'{"remark":"External: \\n\\nBody condition score ; weight kg\\nHair coat\\nEyes, oral cavity: No gross lesions\\n\\nBody Cavities:\\n\\nSubcutaneous and visceral fat stores\\n\\nRespiratory System: \\n\\nCardiovascular System: \\n\\nHemopoietic System: \\nThymic tissue,\\nMesenteric lymph nodes\\nSpleen, other visceral and peripheral lymph nodes: No gross lesions\\nBone marrow not examined\\n\\nLiver, Gallbladder and Pancreas: \\n\\nGastrointestinal Tract:. \\nSubmandibular salivary gland, esophagus no gross lesions\\nEsophagus collected for Tissue Distribution Program, mucosa not examined, externally: No gross lesions\\nStomach\\nContents:\\nMucosa: No gross lesions\\nSmall intestine \\nContents:\\nMucosa: No gross lesions\\nLarge intestine\\nContents:\\nMucosa: No gross lesions\\n\\nGenitourinary System: \\n\\nKidneys, ureters, reproductive tract: No gross lesions\\nUrinary bladder contains ~ ; cystic mucosa: No gross lesions\\n\\nEndocrine System: \\n\\nNo gross lesions\\n\\nMusculoskeletal System: \\n\\nStifle, shoulder, coxofemoral joints: No gross lesions\\n\\nCentral Nervous System: \\n\\nBrain: No gross lesions\\nSpinal cord not examined\\n\\nSUMMARY OF GROSS FINDINGS\\n\\nMICROBIOLOGY"}'</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="30" customFormat="1"/>
+    <row r="7" spans="2:4" s="30" customFormat="1"/>
+    <row r="8" spans="2:4" ht="180">
+      <c r="B8" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" s="30" t="str">
+        <f>"'{""category"":""Pathology Notes"",""remark"":"&amp;""""&amp;SUBSTITUTE(SUBSTITUTE(B8, CHAR(10), "\\n"), "'", "\'")&amp;"""}'"</f>
+        <v>'{"category":"Pathology Notes","remark":"CLINICAL HISTORY: This is a macaque, born at the ONPRC, currently assigned to IACUC "" under Dr. History includes\\n\\nThe animal is presented for necropsy under ketamine sedation, deeply anesthetized with sodium pentobarbital intravenously and exsanguinated via the abdominal aorta. \\n\\nCerebrospinal fluid is collected from the cisterna magna. The sample is clear and colorless.\\n\\nThe cephalic structures are perfused with saline followed by paraformaldehyde via the common trunk, brachiocephalic and right carotid arteries. \\n\\nTissues are collected for the assigned investigator and Tissue Distribution program.\\n\\nCOMMENTS: "}'</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="195">
+      <c r="B10" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30" t="str">
+        <f>"'{""category"":""Pathology Notes"",""remark"":"&amp;""""&amp;SUBSTITUTE(SUBSTITUTE(B10, CHAR(10), "\\n"), "'", "\'")&amp;"""}'"</f>
+        <v>'{"category":"Pathology Notes","remark":"CLINICAL HISTORY: This animal had been identified as an underutilized resource and was submitted for necropsy for tissue distribution assigned to a short term protocol entitled, "." She was submitted for necropsy for tissue distribution.\\n\\nCampylobacter coli and Shigella flexneri\\n\\npresented for necropsy under ketamine sedation, deeply anesthetized with sodium pentobarbital intravenously and exsanguinated via the abdominal aorta. \\nCerebrospinal fluid is collected from the cisterna magna. The sample is clear and colorless.\\nThe cephalic structures are perfused with saline followed by paraformaldehyde via the common trunk, brachiocephalic and right carotid arteries. \\n\\nTissues are collected for the Tissue Distribution program.\\n\\nCOMMENTS: "}'</v>
       </c>
     </row>
   </sheetData>
